--- a/data/credit_score.xlsx
+++ b/data/credit_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suggu/Documents/Assessment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3053B7BD-EC98-2244-8D81-9E924B21EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C8DB7F-8292-A648-9AF6-D423FEEE4FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{3B2B3AF3-5083-4243-8098-2303416E7A08}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
